--- a/Uploads/Reportes/Reporte_Mayo_TICONA_MAMANI_ALEX_ARMANDO.xlsx
+++ b/Uploads/Reportes/Reporte_Mayo_TICONA_MAMANI_ALEX_ARMANDO.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="98">
   <si>
     <t>CÁLCULO DE HORAS MAYO del 2024</t>
   </si>
@@ -29,7 +29,7 @@
     <t>Hora de Reporte:</t>
   </si>
   <si>
-    <t>09:51:33 - 24-05-2024</t>
+    <t>11:18:24 - 27-05-2024</t>
   </si>
   <si>
     <t>Horario:</t>
@@ -167,16 +167,139 @@
     <t>07-05-2024</t>
   </si>
   <si>
+    <t>08-05-2024</t>
+  </si>
+  <si>
+    <t>09-05-2024</t>
+  </si>
+  <si>
+    <t>07:07</t>
+  </si>
+  <si>
+    <t>08:28</t>
+  </si>
+  <si>
+    <t>10-05-2024</t>
+  </si>
+  <si>
+    <t>07:17</t>
+  </si>
+  <si>
+    <t>15:38</t>
+  </si>
+  <si>
+    <t>08:21</t>
+  </si>
+  <si>
+    <t>11-05-2024</t>
+  </si>
+  <si>
+    <t>12-05-2024</t>
+  </si>
+  <si>
+    <t>13-05-2024</t>
+  </si>
+  <si>
+    <t>14-05-2024</t>
+  </si>
+  <si>
+    <t>15:39</t>
+  </si>
+  <si>
+    <t>15-05-2024</t>
+  </si>
+  <si>
+    <t>15:34</t>
+  </si>
+  <si>
+    <t>16-05-2024</t>
+  </si>
+  <si>
+    <t>07:03</t>
+  </si>
+  <si>
+    <t>08:32</t>
+  </si>
+  <si>
+    <t>17-05-2024</t>
+  </si>
+  <si>
+    <t>07:21</t>
+  </si>
+  <si>
+    <t>15:33</t>
+  </si>
+  <si>
+    <t>08:12</t>
+  </si>
+  <si>
+    <t>18-05-2024</t>
+  </si>
+  <si>
+    <t>19-05-2024</t>
+  </si>
+  <si>
+    <t>20-05-2024</t>
+  </si>
+  <si>
+    <t>07:04</t>
+  </si>
+  <si>
+    <t>12:01</t>
+  </si>
+  <si>
+    <t>08:30</t>
+  </si>
+  <si>
+    <t>21-05-2024</t>
+  </si>
+  <si>
+    <t>22-05-2024</t>
+  </si>
+  <si>
+    <t>07:16</t>
+  </si>
+  <si>
+    <t>08:26</t>
+  </si>
+  <si>
+    <t>23-05-2024</t>
+  </si>
+  <si>
     <t>No marco Salida</t>
   </si>
   <si>
+    <t>24-05-2024</t>
+  </si>
+  <si>
+    <t>07:18</t>
+  </si>
+  <si>
+    <t>15:36</t>
+  </si>
+  <si>
+    <t>08:19</t>
+  </si>
+  <si>
+    <t>25-05-2024</t>
+  </si>
+  <si>
+    <t>26-05-2024</t>
+  </si>
+  <si>
+    <t>27-05-2024</t>
+  </si>
+  <si>
+    <t>07:13</t>
+  </si>
+  <si>
     <t>Total Horas:</t>
   </si>
   <si>
-    <t>24:00</t>
-  </si>
-  <si>
-    <t>25:15</t>
+    <t>120:00</t>
+  </si>
+  <si>
+    <t>126:22</t>
   </si>
   <si>
     <t>Licencia por Enfermedad:</t>
@@ -625,10 +748,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Q20"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A18" sqref="A18:F20"/>
+      <selection activeCell="A38" sqref="A38:F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -972,9 +1095,7 @@
         <v>37</v>
       </c>
       <c r="P10" s="5"/>
-      <c r="Q10" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q10" s="5"/>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="5" t="s">
@@ -1068,7 +1189,9 @@
         <v>25</v>
       </c>
       <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
+      <c r="Q12" s="5" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="5" t="s">
@@ -1128,14 +1251,14 @@
         <v>44</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5" t="s">
         <v>44</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>25</v>
@@ -1156,147 +1279,1091 @@
         <v>25</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="P14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="Q14" s="5"/>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
+      <c r="C15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
+      <c r="F15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
+      <c r="C16" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5" t="s">
+      <c r="F16" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="Q16" s="5" t="s">
+      <c r="G16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="O16" s="5" t="s">
         <v>53</v>
       </c>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
+      <c r="A17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
+        <v>38</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="E18" s="5"/>
-      <c r="F18" s="5">
-        <v>2</v>
-      </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
+      <c r="F18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
+        <v>40</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="E19" s="5"/>
-      <c r="F19" s="5">
-        <v>0</v>
-      </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
+      <c r="F19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
+        <v>42</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="E20" s="5"/>
-      <c r="F20" s="5">
-        <v>1</v>
-      </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
+      <c r="F20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="O24" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O25" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="O27" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M28" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N28" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="O28" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M29" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N29" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="O29" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M30" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N30" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O30" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P30" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q30" s="5"/>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L31" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M31" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N31" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="O31" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L32" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M32" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N32" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O32" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L33" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M33" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N33" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O33" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M34" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N34" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O34" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P34" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q34" s="5"/>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q36" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5">
+        <v>3</v>
+      </c>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5">
+        <v>0</v>
+      </c>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5">
+        <v>2</v>
+      </c>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1310,12 +2377,12 @@
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="A6:Q6"/>
     <mergeCell ref="J3:Q5"/>
-    <mergeCell ref="E7:E14"/>
-    <mergeCell ref="A15:Q15"/>
-    <mergeCell ref="A16:O16"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="E7:E34"/>
+    <mergeCell ref="A35:Q35"/>
+    <mergeCell ref="A36:O36"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A40:E40"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Uploads/Reportes/Reporte_Mayo_TICONA_MAMANI_ALEX_ARMANDO.xlsx
+++ b/Uploads/Reportes/Reporte_Mayo_TICONA_MAMANI_ALEX_ARMANDO.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="99">
   <si>
     <t>CÁLCULO DE HORAS MAYO del 2024</t>
   </si>
@@ -29,7 +29,7 @@
     <t>Hora de Reporte:</t>
   </si>
   <si>
-    <t>11:18:24 - 27-05-2024</t>
+    <t>09:42:02 - 31-05-2024</t>
   </si>
   <si>
     <t>Horario:</t>
@@ -95,6 +95,9 @@
     <t>00:00</t>
   </si>
   <si>
+    <t>boleta</t>
+  </si>
+  <si>
     <t>jue.</t>
   </si>
   <si>
@@ -113,7 +116,7 @@
     <t>08:31</t>
   </si>
   <si>
-    <t>boleta</t>
+    <t>hola boleta</t>
   </si>
   <si>
     <t>vie.</t>
@@ -167,6 +170,9 @@
     <t>07-05-2024</t>
   </si>
   <si>
+    <t>No marco Salida</t>
+  </si>
+  <si>
     <t>08-05-2024</t>
   </si>
   <si>
@@ -266,9 +272,6 @@
     <t>23-05-2024</t>
   </si>
   <si>
-    <t>No marco Salida</t>
-  </si>
-  <si>
     <t>24-05-2024</t>
   </si>
   <si>
@@ -296,10 +299,10 @@
     <t>Total Horas:</t>
   </si>
   <si>
-    <t>120:00</t>
-  </si>
-  <si>
-    <t>126:22</t>
+    <t>112:00</t>
+  </si>
+  <si>
+    <t>117:55</t>
   </si>
   <si>
     <t>Licencia por Enfermedad:</t>
@@ -999,27 +1002,29 @@
         <v>25</v>
       </c>
       <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
+      <c r="Q8" s="5" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>25</v>
@@ -1040,35 +1045,35 @@
         <v>25</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P9" s="5"/>
       <c r="Q9" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>25</v>
@@ -1089,20 +1094,20 @@
         <v>25</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>25</v>
@@ -1146,10 +1151,10 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>25</v>
@@ -1189,33 +1194,31 @@
         <v>25</v>
       </c>
       <c r="P12" s="5"/>
-      <c r="Q12" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q12" s="5"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="I13" s="5" t="s">
         <v>25</v>
       </c>
@@ -1232,33 +1235,33 @@
         <v>25</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>25</v>
@@ -1279,12 +1282,14 @@
         <v>25</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="P14" s="5"/>
+        <v>25</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="Q14" s="5"/>
     </row>
     <row r="15" spans="1:17">
@@ -1292,20 +1297,20 @@
         <v>23</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>25</v>
@@ -1326,33 +1331,33 @@
         <v>25</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>25</v>
@@ -1373,33 +1378,33 @@
         <v>25</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>25</v>
@@ -1420,20 +1425,20 @@
         <v>25</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>25</v>
@@ -1477,10 +1482,10 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>25</v>
@@ -1524,10 +1529,10 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>25</v>
@@ -1571,23 +1576,23 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>25</v>
@@ -1608,10 +1613,10 @@
         <v>25</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
@@ -1621,20 +1626,20 @@
         <v>23</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>25</v>
@@ -1655,33 +1660,33 @@
         <v>25</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>25</v>
@@ -1702,33 +1707,33 @@
         <v>25</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>25</v>
@@ -1749,20 +1754,20 @@
         <v>25</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>25</v>
@@ -1806,10 +1811,10 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>25</v>
@@ -1853,26 +1858,26 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>25</v>
@@ -1890,33 +1895,33 @@
         <v>25</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>25</v>
@@ -1937,14 +1942,14 @@
         <v>25</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P28" s="5"/>
       <c r="Q28" s="5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1952,23 +1957,23 @@
         <v>23</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>25</v>
@@ -1986,30 +1991,30 @@
         <v>25</v>
       </c>
       <c r="N29" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O29" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>25</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>25</v>
@@ -2039,32 +2044,32 @@
         <v>25</v>
       </c>
       <c r="P30" s="5" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="Q30" s="5"/>
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>25</v>
@@ -2082,20 +2087,20 @@
         <v>25</v>
       </c>
       <c r="N31" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O31" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P31" s="5"/>
       <c r="Q31" s="5"/>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>25</v>
@@ -2135,14 +2140,16 @@
         <v>25</v>
       </c>
       <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
+      <c r="Q32" s="5" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>25</v>
@@ -2186,20 +2193,20 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>25</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>25</v>
@@ -2229,7 +2236,7 @@
         <v>25</v>
       </c>
       <c r="P34" s="5" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="Q34" s="5"/>
     </row>
@@ -2254,7 +2261,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -2271,10 +2278,10 @@
       <c r="N36" s="5"/>
       <c r="O36" s="5"/>
       <c r="P36" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q36" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2298,14 +2305,14 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
@@ -2321,7 +2328,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -2344,14 +2351,14 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
